--- a/webcam_photo_finish.xlsx
+++ b/webcam_photo_finish.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\study_share\cloud_Aso\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/Dropbox/study_share/cloud_Aso/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="465" windowWidth="13320" windowHeight="14100" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="13320" windowHeight="14100" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="result.csv" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="過去の分も再判定" sheetId="4" r:id="rId3"/>
     <sheet name="出力用" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="66">
   <si>
     <t>st1</t>
   </si>
@@ -389,6 +389,40 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -853,12 +887,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>40719</v>
       </c>
@@ -884,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40719</v>
       </c>
@@ -910,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40719</v>
       </c>
@@ -936,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40719</v>
       </c>
@@ -962,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40719</v>
       </c>
@@ -988,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40720</v>
       </c>
@@ -1014,7 +1048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40720</v>
       </c>
@@ -1040,7 +1074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40720</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>40720</v>
       </c>
@@ -1092,7 +1126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40720</v>
       </c>
@@ -1118,7 +1152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40721</v>
       </c>
@@ -1144,7 +1178,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40721</v>
       </c>
@@ -1170,7 +1204,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40721</v>
       </c>
@@ -1196,7 +1230,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40721</v>
       </c>
@@ -1222,7 +1256,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40721</v>
       </c>
@@ -1248,7 +1282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40722</v>
       </c>
@@ -1274,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>40722</v>
       </c>
@@ -1300,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>40722</v>
       </c>
@@ -1326,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40722</v>
       </c>
@@ -1352,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40722</v>
       </c>
@@ -1378,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40723</v>
       </c>
@@ -1404,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40723</v>
       </c>
@@ -1430,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40723</v>
       </c>
@@ -1456,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40723</v>
       </c>
@@ -1482,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40723</v>
       </c>
@@ -1508,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40724</v>
       </c>
@@ -1534,7 +1568,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40724</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40724</v>
       </c>
@@ -1586,7 +1620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40724</v>
       </c>
@@ -1612,7 +1646,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40724</v>
       </c>
@@ -1638,7 +1672,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40725</v>
       </c>
@@ -1664,7 +1698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40725</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40725</v>
       </c>
@@ -1716,7 +1750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40725</v>
       </c>
@@ -1742,7 +1776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40725</v>
       </c>
@@ -1820,7 +1854,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40726</v>
       </c>
@@ -1846,7 +1880,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40726</v>
       </c>
@@ -1872,7 +1906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40726</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40727</v>
       </c>
@@ -1924,7 +1958,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40727</v>
       </c>
@@ -1950,7 +1984,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40727</v>
       </c>
@@ -1976,7 +2010,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40727</v>
       </c>
@@ -2002,7 +2036,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40727</v>
       </c>
@@ -2028,7 +2062,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40728</v>
       </c>
@@ -2054,7 +2088,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40728</v>
       </c>
@@ -2080,7 +2114,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40728</v>
       </c>
@@ -2106,7 +2140,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40728</v>
       </c>
@@ -2132,7 +2166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40728</v>
       </c>
@@ -2158,7 +2192,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40729</v>
       </c>
@@ -2184,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40729</v>
       </c>
@@ -2282,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40730</v>
       </c>
@@ -2308,7 +2342,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40730</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40730</v>
       </c>
@@ -2360,7 +2394,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40730</v>
       </c>
@@ -2386,7 +2420,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40730</v>
       </c>
@@ -2652,7 +2686,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>40733</v>
       </c>
@@ -2678,7 +2712,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>40733</v>
       </c>
@@ -2824,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>40734</v>
       </c>
@@ -2850,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>40734</v>
       </c>
@@ -2876,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>40734</v>
       </c>
@@ -2926,7 +2960,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>40735</v>
       </c>
@@ -3024,7 +3058,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>40736</v>
       </c>
@@ -3050,7 +3084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>40736</v>
       </c>
@@ -3076,7 +3110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>40736</v>
       </c>
@@ -3102,7 +3136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>40736</v>
       </c>
@@ -3128,7 +3162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>40736</v>
       </c>
@@ -3154,7 +3188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>40737</v>
       </c>
@@ -3228,7 +3262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>40737</v>
       </c>
@@ -3446,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>40739</v>
       </c>
@@ -3472,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>40739</v>
       </c>
@@ -3498,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>40739</v>
       </c>
@@ -3524,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>40740</v>
       </c>
@@ -3550,7 +3584,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>40740</v>
       </c>
@@ -3576,7 +3610,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>40740</v>
       </c>
@@ -3602,7 +3636,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>40740</v>
       </c>
@@ -3628,7 +3662,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>40740</v>
       </c>
@@ -3654,7 +3688,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>40741</v>
       </c>
@@ -3776,7 +3810,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>40742</v>
       </c>
@@ -3802,7 +3836,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40742</v>
       </c>
@@ -3828,7 +3862,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40742</v>
       </c>
@@ -3854,7 +3888,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40742</v>
       </c>
@@ -4024,7 +4058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40744</v>
       </c>
@@ -4050,7 +4084,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40744</v>
       </c>
@@ -4076,7 +4110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40744</v>
       </c>
@@ -4126,7 +4160,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40744</v>
       </c>
@@ -4152,7 +4186,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40745</v>
       </c>
@@ -4178,7 +4212,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40745</v>
       </c>
@@ -4204,7 +4238,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40745</v>
       </c>
@@ -4230,7 +4264,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40745</v>
       </c>
@@ -4256,7 +4290,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40745</v>
       </c>
@@ -4282,7 +4316,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40746</v>
       </c>
@@ -4308,7 +4342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40746</v>
       </c>
@@ -4334,7 +4368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40746</v>
       </c>
@@ -4360,7 +4394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40746</v>
       </c>
@@ -4386,7 +4420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40746</v>
       </c>
@@ -4558,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40748</v>
       </c>
@@ -4584,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40748</v>
       </c>
@@ -4754,7 +4788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40749</v>
       </c>
@@ -4780,7 +4814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40750</v>
       </c>
@@ -4806,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40750</v>
       </c>
@@ -4832,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40750</v>
       </c>
@@ -4858,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40750</v>
       </c>
@@ -4908,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40751</v>
       </c>
@@ -4934,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40751</v>
       </c>
@@ -4960,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40751</v>
       </c>
@@ -4986,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40751</v>
       </c>
@@ -5012,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40751</v>
       </c>
@@ -5038,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40752</v>
       </c>
@@ -5064,7 +5098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40752</v>
       </c>
@@ -5090,7 +5124,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40752</v>
       </c>
@@ -5116,7 +5150,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40752</v>
       </c>
@@ -5142,7 +5176,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>40752</v>
       </c>
@@ -5168,7 +5202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>40753</v>
       </c>
@@ -5194,7 +5228,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>40753</v>
       </c>
@@ -5220,7 +5254,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>40753</v>
       </c>
@@ -5246,7 +5280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>40753</v>
       </c>
@@ -5272,7 +5306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>40753</v>
       </c>
@@ -5298,7 +5332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>40754</v>
       </c>
@@ -5324,7 +5358,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>40754</v>
       </c>
@@ -5350,7 +5384,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>40754</v>
       </c>
@@ -5376,7 +5410,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>40754</v>
       </c>
@@ -5402,7 +5436,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>40754</v>
       </c>
@@ -5500,7 +5534,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>40755</v>
       </c>
@@ -5526,7 +5560,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>40755</v>
       </c>
@@ -5552,7 +5586,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>40756</v>
       </c>
@@ -5578,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>40756</v>
       </c>
@@ -5604,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>40756</v>
       </c>
@@ -5630,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>40756</v>
       </c>
@@ -5656,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>40756</v>
       </c>
@@ -5682,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>40757</v>
       </c>
@@ -5708,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>40757</v>
       </c>
@@ -5734,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>40757</v>
       </c>
@@ -5760,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>40757</v>
       </c>
@@ -5786,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>40757</v>
       </c>
@@ -5812,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>40758</v>
       </c>
@@ -5838,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>40758</v>
       </c>
@@ -5864,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>40758</v>
       </c>
@@ -5890,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>40758</v>
       </c>
@@ -5916,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>40758</v>
       </c>
@@ -5942,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>40759</v>
       </c>
@@ -5968,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>40759</v>
       </c>
@@ -5994,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>40759</v>
       </c>
@@ -6020,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>40759</v>
       </c>
@@ -6046,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>40759</v>
       </c>
@@ -6072,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>40760</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>40760</v>
       </c>
@@ -6124,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>40760</v>
       </c>
@@ -6198,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>40761</v>
       </c>
@@ -6224,7 +6258,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>40761</v>
       </c>
@@ -6250,7 +6284,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>40761</v>
       </c>
@@ -6730,9 +6764,9 @@
       <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="9.375" customWidth="1"/>
+    <col min="2" max="4" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="13" style="7"/>
   </cols>
   <sheetData>
@@ -9470,9 +9504,9 @@
       <selection activeCell="E197" sqref="E2:E197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="9.375" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" style="7"/>
   </cols>
   <sheetData>
@@ -13214,4451 +13248,6278 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:C576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="106" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="106" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9">
         <v>36573</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>36576</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>36657</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>36707</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>36735</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>36743</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>36745</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>36746</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>36747</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>36759</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>36761</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>36763</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>36771</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>36782</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>36783</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>36785</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>36795</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>36799</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>36800</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>36810</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>36812</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>36820</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>36833</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>36834</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>36835</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>36836</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>36837</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>36838</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>36849</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>36852</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>36853</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>36859</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>36867</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>36869</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>36871</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>36873</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>36879</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>36965</v>
       </c>
       <c r="B38" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>36990</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37018</v>
       </c>
       <c r="B40" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37058</v>
       </c>
       <c r="B41" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>37078</v>
       </c>
       <c r="B42" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>37086</v>
       </c>
       <c r="B43" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>37087</v>
       </c>
       <c r="B44" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>37093</v>
       </c>
       <c r="B45" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>37110</v>
       </c>
       <c r="B46" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>37120</v>
       </c>
       <c r="B47" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>37121</v>
       </c>
       <c r="B48" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>37131</v>
       </c>
       <c r="B49" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>37135</v>
       </c>
       <c r="B50" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>37142</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>37145</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>37150</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>37151</v>
       </c>
       <c r="B54" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>37156</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>37165</v>
       </c>
       <c r="B56" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>37190</v>
       </c>
       <c r="B57" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>37191</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>37195</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>37198</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>37199</v>
       </c>
       <c r="B61" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>37211</v>
       </c>
       <c r="B62" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>37217</v>
       </c>
       <c r="B63" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>37219</v>
       </c>
       <c r="B64" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>37222</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>37225</v>
       </c>
       <c r="B66" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>37271</v>
       </c>
       <c r="B67" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>37321</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>37322</v>
       </c>
       <c r="B69" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>37341</v>
       </c>
       <c r="B70" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>37352</v>
       </c>
       <c r="B71" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>37399</v>
       </c>
       <c r="B72" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>37406</v>
       </c>
       <c r="B73" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>37422</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>37450</v>
       </c>
       <c r="B75" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>37451</v>
       </c>
       <c r="B76" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>37462</v>
       </c>
       <c r="B77" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>37467</v>
       </c>
       <c r="B78" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>37469</v>
       </c>
       <c r="B79" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>37477</v>
       </c>
       <c r="B80" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
         <v>37480</v>
       </c>
       <c r="B81" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>37481</v>
       </c>
       <c r="B82" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>37489</v>
       </c>
       <c r="B83" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
         <v>37490</v>
       </c>
       <c r="B84" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
         <v>37491</v>
       </c>
       <c r="B85" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="9">
         <v>37492</v>
       </c>
       <c r="B86" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>37493</v>
       </c>
       <c r="B87" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>37514</v>
       </c>
       <c r="B88" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>37525</v>
       </c>
       <c r="B89" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>37543</v>
       </c>
       <c r="B90" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>37545</v>
       </c>
       <c r="B91" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>37546</v>
       </c>
       <c r="B92" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>37559</v>
       </c>
       <c r="B93" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>37562</v>
       </c>
       <c r="B94" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>37563</v>
       </c>
       <c r="B95" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>37603</v>
       </c>
       <c r="B96" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>37604</v>
       </c>
       <c r="B97" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>37605</v>
       </c>
       <c r="B98" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>37608</v>
       </c>
       <c r="B99" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
         <v>37612</v>
       </c>
       <c r="B100" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
         <v>37613</v>
       </c>
       <c r="B101" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
         <v>37658</v>
       </c>
       <c r="B102" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="9">
         <v>37659</v>
       </c>
       <c r="B103" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>37683</v>
       </c>
       <c r="B104" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>37705</v>
       </c>
       <c r="B105" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>37730</v>
       </c>
       <c r="B106" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>37748</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>37777</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
         <v>37838</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
         <v>37847</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
         <v>37849</v>
       </c>
       <c r="B111" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
         <v>37850</v>
       </c>
       <c r="B112" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="9">
         <v>37856</v>
       </c>
       <c r="B113" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="9">
         <v>37859</v>
       </c>
       <c r="B114" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="9">
         <v>37860</v>
       </c>
       <c r="B115" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="9">
         <v>37868</v>
       </c>
       <c r="B116" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="9">
         <v>37869</v>
       </c>
       <c r="B117" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="9">
         <v>37872</v>
       </c>
       <c r="B118" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="9">
         <v>37888</v>
       </c>
       <c r="B119" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="9">
         <v>37890</v>
       </c>
       <c r="B120" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="9">
         <v>37897</v>
       </c>
       <c r="B121" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="9">
         <v>37905</v>
       </c>
       <c r="B122" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="9">
         <v>37938</v>
       </c>
       <c r="B123" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="9">
         <v>37939</v>
       </c>
       <c r="B124" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="9">
         <v>37941</v>
       </c>
       <c r="B125" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="9">
         <v>37949</v>
       </c>
       <c r="B126" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="9">
         <v>37989</v>
       </c>
       <c r="B127" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="9">
         <v>37994</v>
       </c>
       <c r="B128" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="9">
         <v>38051</v>
       </c>
       <c r="B129" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="9">
         <v>38056</v>
       </c>
       <c r="B130" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="9">
         <v>38078</v>
       </c>
       <c r="B131" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="9">
         <v>38121</v>
       </c>
       <c r="B132" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="9">
         <v>38132</v>
       </c>
       <c r="B133" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="9">
         <v>38146</v>
       </c>
       <c r="B134" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="9">
         <v>38194</v>
       </c>
       <c r="B135" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="9">
         <v>38212</v>
       </c>
       <c r="B136" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="9">
         <v>38219</v>
       </c>
       <c r="B137" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>38225</v>
       </c>
       <c r="B138" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>38241</v>
       </c>
       <c r="B139" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>38249</v>
       </c>
       <c r="B140" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>38251</v>
       </c>
       <c r="B141" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>38263</v>
       </c>
       <c r="B142" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>38265</v>
       </c>
       <c r="B143" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>38267</v>
       </c>
       <c r="B144" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>38268</v>
       </c>
       <c r="B145" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="9">
         <v>38269</v>
       </c>
       <c r="B146" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
         <v>38270</v>
       </c>
       <c r="B147" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>38272</v>
       </c>
       <c r="B148" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>38274</v>
       </c>
       <c r="B149" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>38278</v>
       </c>
       <c r="B150" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C150" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="9">
         <v>38279</v>
       </c>
       <c r="B151" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="9">
         <v>38280</v>
       </c>
       <c r="B152" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
         <v>38288</v>
       </c>
       <c r="B153" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="9">
         <v>38291</v>
       </c>
       <c r="B154" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="9">
         <v>38295</v>
       </c>
       <c r="B155" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="9">
         <v>38304</v>
       </c>
       <c r="B156" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="9">
         <v>38305</v>
       </c>
       <c r="B157" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="9">
         <v>38306</v>
       </c>
       <c r="B158" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="9">
         <v>38312</v>
       </c>
       <c r="B159" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="9">
         <v>38316</v>
       </c>
       <c r="B160" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="9">
         <v>38322</v>
       </c>
       <c r="B161" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="9">
         <v>38323</v>
       </c>
       <c r="B162" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="9">
         <v>38324</v>
       </c>
       <c r="B163" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
         <v>38328</v>
       </c>
       <c r="B164" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="9">
         <v>38330</v>
       </c>
       <c r="B165" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
         <v>38332</v>
       </c>
       <c r="B166" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
         <v>38333</v>
       </c>
       <c r="B167" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
         <v>38337</v>
       </c>
       <c r="B168" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C168" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="9">
         <v>38389</v>
       </c>
       <c r="B169" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C169" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="9">
         <v>38391</v>
       </c>
       <c r="B170" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="9">
         <v>38420</v>
       </c>
       <c r="B171" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="9">
         <v>38447</v>
       </c>
       <c r="B172" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="9">
         <v>38469</v>
       </c>
       <c r="B173" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="9">
         <v>38494</v>
       </c>
       <c r="B174" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="9">
         <v>38510</v>
       </c>
       <c r="B175" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="9">
         <v>38527</v>
       </c>
       <c r="B176" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="9">
         <v>38538</v>
       </c>
       <c r="B177" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="9">
         <v>38591</v>
       </c>
       <c r="B178" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="9">
         <v>38625</v>
       </c>
       <c r="B179" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="9">
         <v>38627</v>
       </c>
       <c r="B180" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="9">
         <v>38635</v>
       </c>
       <c r="B181" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="9">
         <v>38639</v>
       </c>
       <c r="B182" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="9">
         <v>38640</v>
       </c>
       <c r="B183" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="9">
         <v>38647</v>
       </c>
       <c r="B184" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="9">
         <v>38651</v>
       </c>
       <c r="B185" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="9">
         <v>38652</v>
       </c>
       <c r="B186" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="9">
         <v>38653</v>
       </c>
       <c r="B187" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="9">
         <v>38654</v>
       </c>
       <c r="B188" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="9">
         <v>38662</v>
       </c>
       <c r="B189" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="9">
         <v>38663</v>
       </c>
       <c r="B190" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="9">
         <v>38678</v>
       </c>
       <c r="B191" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="9">
         <v>38680</v>
       </c>
       <c r="B192" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="9">
         <v>38681</v>
       </c>
       <c r="B193" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="9">
         <v>38686</v>
       </c>
       <c r="B194" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="9">
         <v>38709</v>
       </c>
       <c r="B195" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C195" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="9">
         <v>38733</v>
       </c>
       <c r="B196" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="9">
         <v>38771</v>
       </c>
       <c r="B197" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="9">
         <v>38840</v>
       </c>
       <c r="B198" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="9">
         <v>38858</v>
       </c>
       <c r="B199" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="9">
         <v>38922</v>
       </c>
       <c r="B200" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="9">
         <v>38923</v>
       </c>
       <c r="B201" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="9">
         <v>38951</v>
       </c>
       <c r="B202" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C202" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="9">
         <v>38953</v>
       </c>
       <c r="B203" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="9">
         <v>38973</v>
       </c>
       <c r="B204" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="9">
         <v>38978</v>
       </c>
       <c r="B205" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C205" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="9">
         <v>38979</v>
       </c>
       <c r="B206" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="9">
         <v>38992</v>
       </c>
       <c r="B207" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="9">
         <v>38995</v>
       </c>
       <c r="B208" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="9">
         <v>38996</v>
       </c>
       <c r="B209" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="9">
         <v>39000</v>
       </c>
       <c r="B210" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="9">
         <v>39003</v>
       </c>
       <c r="B211" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="9">
         <v>39025</v>
       </c>
       <c r="B212" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="9">
         <v>39033</v>
       </c>
       <c r="B213" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="9">
         <v>39034</v>
       </c>
       <c r="B214" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C214" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="9">
         <v>39037</v>
       </c>
       <c r="B215" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C215" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="9">
         <v>39039</v>
       </c>
       <c r="B216" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="9">
         <v>39041</v>
       </c>
       <c r="B217" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="9">
         <v>39045</v>
       </c>
       <c r="B218" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C218" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="9">
         <v>39049</v>
       </c>
       <c r="B219" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="9">
         <v>39185</v>
       </c>
       <c r="B220" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="9">
         <v>39205</v>
       </c>
       <c r="B221" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="9">
         <v>39219</v>
       </c>
       <c r="B222" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="9">
         <v>39222</v>
       </c>
       <c r="B223" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="9">
         <v>39238</v>
       </c>
       <c r="B224" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="9">
         <v>39241</v>
       </c>
       <c r="B225" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="9">
         <v>39277</v>
       </c>
       <c r="B226" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="9">
         <v>39278</v>
       </c>
       <c r="B227" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="9">
         <v>39288</v>
       </c>
       <c r="B228" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="9">
         <v>39290</v>
       </c>
       <c r="B229" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="9">
         <v>39293</v>
       </c>
       <c r="B230" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="9">
         <v>39294</v>
       </c>
       <c r="B231" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="9">
         <v>39302</v>
       </c>
       <c r="B232" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="9">
         <v>39316</v>
       </c>
       <c r="B233" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C233" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="9">
         <v>39317</v>
       </c>
       <c r="B234" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="9">
         <v>39331</v>
       </c>
       <c r="B235" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C235" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="9">
         <v>39332</v>
       </c>
       <c r="B236" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="9">
         <v>39360</v>
       </c>
       <c r="B237" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C237" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="9">
         <v>39362</v>
       </c>
       <c r="B238" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="9">
         <v>39363</v>
       </c>
       <c r="B239" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="9">
         <v>39364</v>
       </c>
       <c r="B240" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C240" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="9">
         <v>39366</v>
       </c>
       <c r="B241" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C241" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="9">
         <v>39372</v>
       </c>
       <c r="B242" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C242" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="9">
         <v>39378</v>
       </c>
       <c r="B243" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="9">
         <v>39386</v>
       </c>
       <c r="B244" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C244" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="9">
         <v>39389</v>
       </c>
       <c r="B245" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="9">
         <v>39391</v>
       </c>
       <c r="B246" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="9">
         <v>39397</v>
       </c>
       <c r="B247" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="9">
         <v>39399</v>
       </c>
       <c r="B248" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="9">
         <v>39412</v>
       </c>
       <c r="B249" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="9">
         <v>39414</v>
       </c>
       <c r="B250" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="9">
         <v>39415</v>
       </c>
       <c r="B251" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="9">
         <v>39420</v>
       </c>
       <c r="B252" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="9">
         <v>39422</v>
       </c>
       <c r="B253" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="9">
         <v>39427</v>
       </c>
       <c r="B254" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="9">
         <v>39428</v>
       </c>
       <c r="B255" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="9">
         <v>39429</v>
       </c>
       <c r="B256" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="9">
         <v>39520</v>
       </c>
       <c r="B257" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="9">
         <v>39547</v>
       </c>
       <c r="B258" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="9">
         <v>39549</v>
       </c>
       <c r="B259" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="9">
         <v>39554</v>
       </c>
       <c r="B260" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="9">
         <v>39555</v>
       </c>
       <c r="B261" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="9">
         <v>39556</v>
       </c>
       <c r="B262" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="9">
         <v>39561</v>
       </c>
       <c r="B263" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="9">
         <v>39569</v>
       </c>
       <c r="B264" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="9">
         <v>39583</v>
       </c>
       <c r="B265" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="9">
         <v>39593</v>
       </c>
       <c r="B266" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="9">
         <v>39594</v>
       </c>
       <c r="B267" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C267" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="9">
         <v>39599</v>
       </c>
       <c r="B268" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="9">
         <v>39604</v>
       </c>
       <c r="B269" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C269" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="9">
         <v>39605</v>
       </c>
       <c r="B270" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C270" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="9">
         <v>39612</v>
       </c>
       <c r="B271" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C271" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="9">
         <v>39627</v>
       </c>
       <c r="B272" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C272" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="9">
         <v>39637</v>
       </c>
       <c r="B273" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C273" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="9">
         <v>39638</v>
       </c>
       <c r="B274" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="9">
         <v>39652</v>
       </c>
       <c r="B275" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C275" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="9">
         <v>39653</v>
       </c>
       <c r="B276" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C276" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="9">
         <v>39657</v>
       </c>
       <c r="B277" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C277" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="9">
         <v>39658</v>
       </c>
       <c r="B278" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="9">
         <v>39669</v>
       </c>
       <c r="B279" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C279" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="9">
         <v>39671</v>
       </c>
       <c r="B280" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="9">
         <v>39674</v>
       </c>
       <c r="B281" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="9">
         <v>39676</v>
       </c>
       <c r="B282" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C282" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="9">
         <v>39677</v>
       </c>
       <c r="B283" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="9">
         <v>39688</v>
       </c>
       <c r="B284" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="9">
         <v>39689</v>
       </c>
       <c r="B285" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="9">
         <v>39694</v>
       </c>
       <c r="B286" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="9">
         <v>39695</v>
       </c>
       <c r="B287" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="9">
         <v>39696</v>
       </c>
       <c r="B288" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="9">
         <v>39697</v>
       </c>
       <c r="B289" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="9">
         <v>39699</v>
       </c>
       <c r="B290" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C290" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="9">
         <v>39703</v>
       </c>
       <c r="B291" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="9">
         <v>39704</v>
       </c>
       <c r="B292" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C292" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="9">
         <v>39705</v>
       </c>
       <c r="B293" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C293" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="9">
         <v>39711</v>
       </c>
       <c r="B294" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C294" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="9">
         <v>39712</v>
       </c>
       <c r="B295" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="9">
         <v>39718</v>
       </c>
       <c r="B296" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C296" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="9">
         <v>39723</v>
       </c>
       <c r="B297" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="9">
         <v>39728</v>
       </c>
       <c r="B298" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="9">
         <v>39730</v>
       </c>
       <c r="B299" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="9">
         <v>39731</v>
       </c>
       <c r="B300" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C300" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="9">
         <v>39732</v>
       </c>
       <c r="B301" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C301" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="9">
         <v>39735</v>
       </c>
       <c r="B302" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="9">
         <v>39741</v>
       </c>
       <c r="B303" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C303" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="9">
         <v>39744</v>
       </c>
       <c r="B304" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="9">
         <v>39747</v>
       </c>
       <c r="B305" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C305" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="9">
         <v>39749</v>
       </c>
       <c r="B306" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C306" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="9">
         <v>39754</v>
       </c>
       <c r="B307" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C307" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="9">
         <v>39767</v>
       </c>
       <c r="B308" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C308" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="9">
         <v>39776</v>
       </c>
       <c r="B309" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C309" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="9">
         <v>39781</v>
       </c>
       <c r="B310" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C310" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="9">
         <v>39794</v>
       </c>
       <c r="B311" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C311" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="9">
         <v>39798</v>
       </c>
       <c r="B312" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C312" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="9">
         <v>39893</v>
       </c>
       <c r="B313" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C313" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="9">
         <v>39900</v>
       </c>
       <c r="B314" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C314" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="9">
         <v>39903</v>
       </c>
       <c r="B315" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C315" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="9">
         <v>39906</v>
       </c>
       <c r="B316" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C316" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="9">
         <v>39920</v>
       </c>
       <c r="B317" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C317" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="9">
         <v>39927</v>
       </c>
       <c r="B318" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C318" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="9">
         <v>39933</v>
       </c>
       <c r="B319" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C319" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="9">
         <v>39934</v>
       </c>
       <c r="B320" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C320" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="9">
         <v>39941</v>
       </c>
       <c r="B321" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C321" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="9">
         <v>39944</v>
       </c>
       <c r="B322" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C322" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="9">
         <v>39952</v>
       </c>
       <c r="B323" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C323" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="9">
         <v>39953</v>
       </c>
       <c r="B324" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C324" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="9">
         <v>39954</v>
       </c>
       <c r="B325" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C325" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="9">
         <v>39955</v>
       </c>
       <c r="B326" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C326" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="9">
         <v>39963</v>
       </c>
       <c r="B327" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C327" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="9">
         <v>39967</v>
       </c>
       <c r="B328" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C328" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="9">
         <v>39968</v>
       </c>
       <c r="B329" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C329" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="9">
         <v>39971</v>
       </c>
       <c r="B330" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C330" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="9">
         <v>39975</v>
       </c>
       <c r="B331" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C331" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="9">
         <v>39977</v>
       </c>
       <c r="B332" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C332" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="9">
         <v>39980</v>
       </c>
       <c r="B333" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C333" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="9">
         <v>39985</v>
       </c>
       <c r="B334" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C334" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" s="9">
         <v>39995</v>
       </c>
       <c r="B335" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C335" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" s="9">
         <v>40003</v>
       </c>
       <c r="B336" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C336" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="9">
         <v>40005</v>
       </c>
       <c r="B337" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C337" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="9">
         <v>40006</v>
       </c>
       <c r="B338" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C338" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="9">
         <v>40008</v>
       </c>
       <c r="B339" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C339" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="9">
         <v>40009</v>
       </c>
       <c r="B340" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C340" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="9">
         <v>40012</v>
       </c>
       <c r="B341" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C341" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="9">
         <v>40013</v>
       </c>
       <c r="B342" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C342" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="9">
         <v>40014</v>
       </c>
       <c r="B343" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C343" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="9">
         <v>40015</v>
       </c>
       <c r="B344" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C344" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="9">
         <v>40027</v>
       </c>
       <c r="B345" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C345" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="9">
         <v>40034</v>
       </c>
       <c r="B346" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C346" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="9">
         <v>40036</v>
       </c>
       <c r="B347" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C347" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="9">
         <v>40037</v>
       </c>
       <c r="B348" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C348" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="9">
         <v>40038</v>
       </c>
       <c r="B349" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C349" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="9">
         <v>40039</v>
       </c>
       <c r="B350" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C350" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="9">
         <v>40040</v>
       </c>
       <c r="B351" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C351" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="9">
         <v>40041</v>
       </c>
       <c r="B352" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C352" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="9">
         <v>40046</v>
       </c>
       <c r="B353" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="9">
         <v>40051</v>
       </c>
       <c r="B354" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C354" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="9">
         <v>40052</v>
       </c>
       <c r="B355" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C355" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="9">
         <v>40058</v>
       </c>
       <c r="B356" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C356" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>40716</v>
       </c>
       <c r="B357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C357" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>40717</v>
       </c>
       <c r="B358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C358" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>40718</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C359" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>40719</v>
       </c>
       <c r="B360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>40720</v>
       </c>
       <c r="B361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>40721</v>
       </c>
       <c r="B362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C362" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>40722</v>
       </c>
       <c r="B363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C363" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>40723</v>
       </c>
       <c r="B364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C364" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>40724</v>
       </c>
       <c r="B365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C365" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>40725</v>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C366" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>40726</v>
       </c>
       <c r="B367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C367" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>40727</v>
       </c>
       <c r="B368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C368" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>40728</v>
       </c>
       <c r="B369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C369" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>40729</v>
       </c>
       <c r="B370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C370" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>40730</v>
       </c>
       <c r="B371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C371" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>40731</v>
       </c>
       <c r="B372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C372" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>40732</v>
       </c>
       <c r="B373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C373" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>40733</v>
       </c>
       <c r="B374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C374" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>40734</v>
       </c>
       <c r="B375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C375" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>40735</v>
       </c>
       <c r="B376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C376" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>40736</v>
       </c>
       <c r="B377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C377" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>40737</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C378" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>40738</v>
       </c>
       <c r="B379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C379" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>40739</v>
       </c>
       <c r="B380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C380" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>40740</v>
       </c>
       <c r="B381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C381" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>40741</v>
       </c>
       <c r="B382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C382" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>40742</v>
       </c>
       <c r="B383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C383" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>40743</v>
       </c>
       <c r="B384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C384" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>40744</v>
       </c>
       <c r="B385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C385" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>40745</v>
       </c>
       <c r="B386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C386" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>40746</v>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C387" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>40747</v>
       </c>
       <c r="B388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C388" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>40748</v>
       </c>
       <c r="B389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C389" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>40749</v>
       </c>
       <c r="B390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C390" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>40750</v>
       </c>
       <c r="B391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C391" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>40751</v>
       </c>
       <c r="B392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C392" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>40752</v>
       </c>
       <c r="B393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C393" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>40753</v>
       </c>
       <c r="B394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C394" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>40754</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C395" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>40755</v>
       </c>
       <c r="B396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C396" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>40756</v>
       </c>
       <c r="B397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C397" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <v>40757</v>
       </c>
       <c r="B398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C398" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <v>40758</v>
       </c>
       <c r="B399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C399" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
         <v>40759</v>
       </c>
       <c r="B400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C400" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
         <v>40760</v>
       </c>
       <c r="B401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C401" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>40761</v>
       </c>
       <c r="B402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C402" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <v>40762</v>
       </c>
       <c r="B403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C403" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>40763</v>
       </c>
       <c r="B404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C404" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>40764</v>
       </c>
       <c r="B405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C405" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <v>40765</v>
       </c>
       <c r="B406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C406" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <v>40766</v>
       </c>
       <c r="B407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C407" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <v>40767</v>
       </c>
       <c r="B408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C408" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
         <v>40768</v>
       </c>
       <c r="B409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C409" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
         <v>40769</v>
       </c>
       <c r="B410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C410" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
         <v>40770</v>
       </c>
       <c r="B411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C411" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
         <v>40771</v>
       </c>
       <c r="B412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C412" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <v>40772</v>
       </c>
       <c r="B413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C413" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <v>40773</v>
       </c>
       <c r="B414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C414" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <v>40774</v>
       </c>
       <c r="B415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <v>40775</v>
       </c>
       <c r="B416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C416" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <v>40776</v>
       </c>
       <c r="B417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C417" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <v>40777</v>
       </c>
       <c r="B418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C418" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <v>40778</v>
       </c>
       <c r="B419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C419" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <v>40779</v>
       </c>
       <c r="B420" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C420" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>40780</v>
       </c>
       <c r="B421" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C421" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>40781</v>
       </c>
       <c r="B422" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C422" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>40782</v>
       </c>
       <c r="B423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C423" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>40783</v>
       </c>
       <c r="B424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C424" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <v>40784</v>
       </c>
       <c r="B425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C425" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <v>40785</v>
       </c>
       <c r="B426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C426" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>40786</v>
       </c>
       <c r="B427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C427" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>40787</v>
       </c>
       <c r="B428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C428" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <v>40788</v>
       </c>
       <c r="B429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C429" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>40789</v>
       </c>
       <c r="B430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C430" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <v>40790</v>
       </c>
       <c r="B431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C431" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>40791</v>
       </c>
       <c r="B432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C432" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" s="6">
         <v>40792</v>
       </c>
       <c r="B433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C433" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" s="6">
         <v>40793</v>
       </c>
       <c r="B434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C434" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" s="6">
         <v>40794</v>
       </c>
       <c r="B435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C435" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <v>40795</v>
       </c>
       <c r="B436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C436" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <v>40796</v>
       </c>
       <c r="B437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C437" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="6">
         <v>40797</v>
       </c>
       <c r="B438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C438" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>40798</v>
       </c>
       <c r="B439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C439" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="6">
         <v>40799</v>
       </c>
       <c r="B440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C440" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <v>40800</v>
       </c>
       <c r="B441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C441" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="6">
         <v>40801</v>
       </c>
       <c r="B442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C442" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>40802</v>
       </c>
       <c r="B443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C443" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="6">
         <v>40803</v>
       </c>
       <c r="B444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C444" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>40804</v>
       </c>
       <c r="B445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C445" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>40805</v>
       </c>
       <c r="B446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C446" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="6">
         <v>40806</v>
       </c>
       <c r="B447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C447" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="6">
         <v>40807</v>
       </c>
       <c r="B448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C448" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="6">
         <v>40808</v>
       </c>
       <c r="B449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C449" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="6">
         <v>40809</v>
       </c>
       <c r="B450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C450" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" s="6">
         <v>40810</v>
       </c>
       <c r="B451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C451" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>40811</v>
       </c>
       <c r="B452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C452" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>40812</v>
       </c>
       <c r="B453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C453" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>40813</v>
       </c>
       <c r="B454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C454" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>40814</v>
       </c>
       <c r="B455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C455" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>40815</v>
       </c>
       <c r="B456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C456" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>40816</v>
       </c>
       <c r="B457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C457" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>40817</v>
       </c>
       <c r="B458" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C458" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" s="6">
         <v>40818</v>
       </c>
       <c r="B459" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C459" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>40819</v>
       </c>
       <c r="B460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C460" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="6">
         <v>40820</v>
       </c>
       <c r="B461" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C461" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>40821</v>
       </c>
       <c r="B462" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C462" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="6">
         <v>40822</v>
       </c>
       <c r="B463" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C463" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="6">
         <v>40823</v>
       </c>
       <c r="B464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C464" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="6">
         <v>40824</v>
       </c>
       <c r="B465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C465" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="6">
         <v>40825</v>
       </c>
       <c r="B466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C466" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>40826</v>
       </c>
       <c r="B467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C467" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>40827</v>
       </c>
       <c r="B468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C468" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>40828</v>
       </c>
       <c r="B469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C469" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>40829</v>
       </c>
       <c r="B470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C470" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>40830</v>
       </c>
       <c r="B471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C471" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>40831</v>
       </c>
       <c r="B472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C472" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" s="6">
         <v>40832</v>
       </c>
       <c r="B473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C473" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>40833</v>
       </c>
       <c r="B474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C474" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>40834</v>
       </c>
       <c r="B475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C475" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" s="6">
         <v>40835</v>
       </c>
       <c r="B476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C476" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>40836</v>
       </c>
       <c r="B477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C477" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>40837</v>
       </c>
       <c r="B478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C478" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>40838</v>
       </c>
       <c r="B479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C479" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="6">
         <v>40839</v>
       </c>
       <c r="B480">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C480" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" s="6">
         <v>40840</v>
       </c>
       <c r="B481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C481" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" s="6">
         <v>40841</v>
       </c>
       <c r="B482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C482" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" s="6">
         <v>40842</v>
       </c>
       <c r="B483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C483" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>40843</v>
       </c>
       <c r="B484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C484" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" s="6">
         <v>40844</v>
       </c>
       <c r="B485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C485" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" s="6">
         <v>40845</v>
       </c>
       <c r="B486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C486" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" s="6">
         <v>40846</v>
       </c>
       <c r="B487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C487" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" s="6">
         <v>40847</v>
       </c>
       <c r="B488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C488" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" s="6">
         <v>40848</v>
       </c>
       <c r="B489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C489" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" s="6">
         <v>40849</v>
       </c>
       <c r="B490">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C490" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" s="6">
         <v>40850</v>
       </c>
       <c r="B491">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C491" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="6">
         <v>40851</v>
       </c>
       <c r="B492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C492" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="6">
         <v>40852</v>
       </c>
       <c r="B493">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C493" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A494" s="6">
         <v>40853</v>
       </c>
       <c r="B494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C494" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>40854</v>
       </c>
       <c r="B495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C495" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A496" s="6">
         <v>40855</v>
       </c>
       <c r="B496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C496" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>40856</v>
       </c>
       <c r="B497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C497" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A498" s="6">
         <v>40857</v>
       </c>
       <c r="B498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C498" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A499" s="6">
         <v>40858</v>
       </c>
       <c r="B499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C499" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>40859</v>
       </c>
       <c r="B500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C500" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A501" s="6">
         <v>40860</v>
       </c>
       <c r="B501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C501" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A502" s="6">
         <v>40861</v>
       </c>
       <c r="B502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C502" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A503" s="6">
         <v>40862</v>
       </c>
       <c r="B503">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C503" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A504" s="6">
         <v>40863</v>
       </c>
       <c r="B504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C504" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A505" s="6">
         <v>40864</v>
       </c>
       <c r="B505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C505" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A506" s="6">
         <v>40865</v>
       </c>
       <c r="B506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C506" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A507" s="6">
         <v>40866</v>
       </c>
       <c r="B507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C507" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A508" s="6">
         <v>40867</v>
       </c>
       <c r="B508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C508" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A509" s="6">
         <v>40868</v>
       </c>
       <c r="B509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C509" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A510" s="6">
         <v>40869</v>
       </c>
       <c r="B510">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C510" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A511" s="6">
         <v>40870</v>
       </c>
       <c r="B511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C511" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A512" s="6">
         <v>40871</v>
       </c>
       <c r="B512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C512" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A513" s="6">
         <v>40872</v>
       </c>
       <c r="B513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C513" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A514" s="6">
         <v>40873</v>
       </c>
       <c r="B514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C514" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A515" s="6">
         <v>40874</v>
       </c>
       <c r="B515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C515" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A516" s="6">
         <v>40875</v>
       </c>
       <c r="B516">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C516" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A517" s="6">
         <v>40876</v>
       </c>
       <c r="B517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C517" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A518" s="6">
         <v>40877</v>
       </c>
       <c r="B518">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C518" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A519" s="6">
         <v>40878</v>
       </c>
       <c r="B519">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C519" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A520" s="6">
         <v>40879</v>
       </c>
       <c r="B520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C520" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A521" s="6">
         <v>40880</v>
       </c>
       <c r="B521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C521" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A522" s="6">
         <v>40881</v>
       </c>
       <c r="B522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C522" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A523" s="6">
         <v>40882</v>
       </c>
       <c r="B523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C523" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A524" s="6">
         <v>40883</v>
       </c>
       <c r="B524">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C524" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A525" s="6">
         <v>40884</v>
       </c>
       <c r="B525">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C525" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A526" s="6">
         <v>40885</v>
       </c>
       <c r="B526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C526" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A527" s="6">
         <v>40886</v>
       </c>
       <c r="B527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C527" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A528" s="6">
         <v>40887</v>
       </c>
       <c r="B528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C528" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A529" s="6">
         <v>40888</v>
       </c>
       <c r="B529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C529" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A530" s="6">
         <v>40889</v>
       </c>
       <c r="B530">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C530" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A531" s="6">
         <v>40890</v>
       </c>
       <c r="B531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C531" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A532" s="6">
         <v>40891</v>
       </c>
       <c r="B532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C532" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A533" s="6">
         <v>40892</v>
       </c>
       <c r="B533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C533" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A534" s="6">
         <v>40893</v>
       </c>
       <c r="B534" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C534" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A535" s="6">
         <v>40894</v>
       </c>
       <c r="B535" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C535" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A536" s="6">
         <v>40895</v>
       </c>
       <c r="B536" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C536" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A537" s="6">
         <v>40896</v>
       </c>
       <c r="B537" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C537" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" s="6">
         <v>40897</v>
       </c>
       <c r="B538">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C538" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" s="6">
         <v>40898</v>
       </c>
       <c r="B539" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C539" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" s="6">
         <v>40899</v>
       </c>
       <c r="B540" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C540" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" s="6">
         <v>40900</v>
       </c>
       <c r="B541" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C541" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" s="6">
         <v>40901</v>
       </c>
       <c r="B542" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C542" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" s="6">
         <v>40902</v>
       </c>
       <c r="B543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C543" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" s="6">
         <v>40903</v>
       </c>
       <c r="B544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C544" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" s="6">
         <v>40904</v>
       </c>
       <c r="B545">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C545" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" s="6">
         <v>40905</v>
       </c>
       <c r="B546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C546" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" s="6">
         <v>40906</v>
       </c>
       <c r="B547" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C547" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" s="6">
         <v>40907</v>
       </c>
       <c r="B548" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C548" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" s="6">
         <v>40908</v>
       </c>
       <c r="B549">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C549" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="6">
         <v>40909</v>
       </c>
       <c r="B550">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C550" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="6">
         <v>40910</v>
       </c>
       <c r="B551" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C551" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="6">
         <v>40911</v>
       </c>
       <c r="B552" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C552" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="6">
         <v>40912</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B553" t="s">
+        <v>58</v>
+      </c>
+      <c r="C553" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="6">
         <v>40913</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="6">
         <v>40914</v>
       </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A556" s="6">
+        <v>40915</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+      <c r="C556" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A557" s="6">
+        <v>40916</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A558" s="6">
+        <v>40917</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+      <c r="C558" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A559" s="6">
+        <v>40918</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A560" s="6">
+        <v>40919</v>
+      </c>
+      <c r="B560" t="s">
+        <v>57</v>
+      </c>
+      <c r="C560" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A561" s="6">
+        <v>40920</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A562" s="6">
+        <v>40921</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A563" s="6">
+        <v>40922</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A564" s="6">
+        <v>40923</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A565" s="6">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A566" s="6">
+        <v>40925</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A567" s="6">
+        <v>40926</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A568" s="6">
+        <v>40927</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A569" s="6">
+        <v>40928</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A570" s="6">
+        <v>40929</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A571" s="6">
+        <v>40930</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A572" s="6">
+        <v>40931</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A573" s="6">
+        <v>40932</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A574" s="6">
+        <v>40933</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A575" s="6">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A576" s="6">
+        <v>40935</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B357:B552">
+  <conditionalFormatting sqref="B357:B553">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/webcam_photo_finish.xlsx
+++ b/webcam_photo_finish.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="13320" windowHeight="14100" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="11260" windowHeight="14100" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="result.csv" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="116">
   <si>
     <t>st1</t>
   </si>
@@ -425,6 +428,287 @@
     <t>v</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterより判断</t>
+    <rPh sb="9" eb="11">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでは薄すぎると思ったが・・・場所によっては見えたらしい</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウススギル</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バショニヨッテハ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミエタラシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自前の北山カメラキャプチャ画像で判断</t>
+    <rPh sb="0" eb="2">
+      <t>ジマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラの角度がおかしい</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変な画角だけど写っているｗ</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川さんが直接阿蘇で確認した・・・</t>
+    <rPh sb="0" eb="2">
+      <t>アサカワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラ不調</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラが変な方向に・・・</t>
+    <rPh sb="6" eb="7">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitterでも報告めちゃある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラは超雲の中</t>
+    <rPh sb="4" eb="6">
+      <t>チョウクモノナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜に地震</t>
+    <rPh sb="2" eb="4">
+      <t>ジシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一瞬雲海が出たが・・・曇り。しかもその後晴れた。Twitterでは見事な雲海。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterより判断。1日の雲海写真は3日まで投稿されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラデータ無し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変な画角だけど写っているｗ　Twitterでも1つ報告がある。</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラデータ無し。Twitterに薄く地表の見える画像がアップされている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterでも報告あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterでも報告あり。ちょっと報告が少ない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完璧に北山カメラに写っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでは微妙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでは微妙。Twitterでは報告なし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでも写っている。Twitterでも多数報告あり。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでも写っている。Twitterでは報告なし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでも写っている。Twtterで報告あり。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでは綺麗に写っている。Twitterでは報告なし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻木さんに依るTwitter収集はここから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラ不調</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラ1ショットのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterでも報告あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラで一瞬写った気がする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラ不調</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -450,17 +734,20 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -13248,10 +13535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:F695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="106" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17835,7 +18122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <v>40776</v>
       </c>
@@ -17846,7 +18133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <v>40777</v>
       </c>
@@ -17857,7 +18144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <v>40778</v>
       </c>
@@ -17868,7 +18155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <v>40779</v>
       </c>
@@ -17878,8 +18165,11 @@
       <c r="C420" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D420" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>40780</v>
       </c>
@@ -17889,8 +18179,11 @@
       <c r="C421" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D421" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>40781</v>
       </c>
@@ -17900,8 +18193,11 @@
       <c r="C422" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D422" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>40782</v>
       </c>
@@ -17912,7 +18208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>40783</v>
       </c>
@@ -17923,7 +18219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <v>40784</v>
       </c>
@@ -17934,7 +18230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <v>40785</v>
       </c>
@@ -17945,7 +18241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>40786</v>
       </c>
@@ -17956,7 +18252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>40787</v>
       </c>
@@ -17967,7 +18263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <v>40788</v>
       </c>
@@ -17978,7 +18274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>40789</v>
       </c>
@@ -17989,7 +18285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <v>40790</v>
       </c>
@@ -18000,7 +18296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>40791</v>
       </c>
@@ -18187,7 +18483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449" s="6">
         <v>40808</v>
       </c>
@@ -18198,7 +18494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450" s="6">
         <v>40809</v>
       </c>
@@ -18209,7 +18505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451" s="6">
         <v>40810</v>
       </c>
@@ -18220,7 +18516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>40811</v>
       </c>
@@ -18231,7 +18527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>40812</v>
       </c>
@@ -18242,7 +18538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>40813</v>
       </c>
@@ -18253,7 +18549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>40814</v>
       </c>
@@ -18264,7 +18560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>40815</v>
       </c>
@@ -18275,7 +18571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>40816</v>
       </c>
@@ -18286,7 +18582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>40817</v>
       </c>
@@ -18296,8 +18592,11 @@
       <c r="C458" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E458" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459" s="6">
         <v>40818</v>
       </c>
@@ -18307,8 +18606,11 @@
       <c r="C459" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E459" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>40819</v>
       </c>
@@ -18318,8 +18620,14 @@
       <c r="C460" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D460" t="s">
+        <v>73</v>
+      </c>
+      <c r="E460" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="6">
         <v>40820</v>
       </c>
@@ -18329,8 +18637,11 @@
       <c r="C461" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E461" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>40821</v>
       </c>
@@ -18340,8 +18651,14 @@
       <c r="C462" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E462" t="s">
+        <v>87</v>
+      </c>
+      <c r="F462" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" s="6">
         <v>40822</v>
       </c>
@@ -18351,8 +18668,11 @@
       <c r="C463" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E463" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" s="6">
         <v>40823</v>
       </c>
@@ -18363,7 +18683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="6">
         <v>40824</v>
       </c>
@@ -18374,7 +18694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="6">
         <v>40825</v>
       </c>
@@ -18385,7 +18705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>40826</v>
       </c>
@@ -18396,7 +18716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>40827</v>
       </c>
@@ -18407,7 +18727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>40828</v>
       </c>
@@ -18418,7 +18738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>40829</v>
       </c>
@@ -18429,7 +18749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>40830</v>
       </c>
@@ -18440,7 +18760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>40831</v>
       </c>
@@ -18450,8 +18770,11 @@
       <c r="C472" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D472" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="6">
         <v>40832</v>
       </c>
@@ -18462,7 +18785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>40833</v>
       </c>
@@ -18473,7 +18796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>40834</v>
       </c>
@@ -18483,8 +18806,11 @@
       <c r="C475" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D475" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="6">
         <v>40835</v>
       </c>
@@ -18494,8 +18820,11 @@
       <c r="C476" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D476" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>40836</v>
       </c>
@@ -18506,7 +18835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>40837</v>
       </c>
@@ -18517,7 +18846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>40838</v>
       </c>
@@ -18527,8 +18856,11 @@
       <c r="C479" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D479" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="6">
         <v>40839</v>
       </c>
@@ -18538,8 +18870,11 @@
       <c r="C480" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D480" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="6">
         <v>40840</v>
       </c>
@@ -18550,7 +18885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="6">
         <v>40841</v>
       </c>
@@ -18561,7 +18896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="6">
         <v>40842</v>
       </c>
@@ -18572,7 +18907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>40843</v>
       </c>
@@ -18583,7 +18918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" s="6">
         <v>40844</v>
       </c>
@@ -18594,7 +18929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" s="6">
         <v>40845</v>
       </c>
@@ -18605,7 +18940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" s="6">
         <v>40846</v>
       </c>
@@ -18616,7 +18951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" s="6">
         <v>40847</v>
       </c>
@@ -18627,7 +18962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" s="6">
         <v>40848</v>
       </c>
@@ -18638,18 +18973,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" s="6">
         <v>40849</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" s="6">
         <v>40850</v>
       </c>
@@ -18659,8 +18994,11 @@
       <c r="C491" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D491" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A492" s="6">
         <v>40851</v>
       </c>
@@ -18671,7 +19009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A493" s="6">
         <v>40852</v>
       </c>
@@ -18681,8 +19019,11 @@
       <c r="C493" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D493" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A494" s="6">
         <v>40853</v>
       </c>
@@ -18693,7 +19034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>40854</v>
       </c>
@@ -18704,7 +19045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A496" s="6">
         <v>40855</v>
       </c>
@@ -18715,7 +19056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>40856</v>
       </c>
@@ -18726,7 +19067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A498" s="6">
         <v>40857</v>
       </c>
@@ -18737,7 +19078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A499" s="6">
         <v>40858</v>
       </c>
@@ -18748,7 +19089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>40859</v>
       </c>
@@ -18759,7 +19100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A501" s="6">
         <v>40860</v>
       </c>
@@ -18770,7 +19111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A502" s="6">
         <v>40861</v>
       </c>
@@ -18781,7 +19122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A503" s="6">
         <v>40862</v>
       </c>
@@ -18791,8 +19132,11 @@
       <c r="C503" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D503" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A504" s="6">
         <v>40863</v>
       </c>
@@ -18803,7 +19147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A505" s="6">
         <v>40864</v>
       </c>
@@ -18814,7 +19158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A506" s="6">
         <v>40865</v>
       </c>
@@ -18825,7 +19169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A507" s="6">
         <v>40866</v>
       </c>
@@ -18836,7 +19180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A508" s="6">
         <v>40867</v>
       </c>
@@ -18847,7 +19191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A509" s="6">
         <v>40868</v>
       </c>
@@ -18858,7 +19202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A510" s="6">
         <v>40869</v>
       </c>
@@ -18868,8 +19212,11 @@
       <c r="C510" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D510" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A511" s="6">
         <v>40870</v>
       </c>
@@ -18880,7 +19227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A512" s="6">
         <v>40871</v>
       </c>
@@ -18891,7 +19238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A513" s="6">
         <v>40872</v>
       </c>
@@ -18902,7 +19249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A514" s="6">
         <v>40873</v>
       </c>
@@ -18913,7 +19260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A515" s="6">
         <v>40874</v>
       </c>
@@ -18924,7 +19271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A516" s="6">
         <v>40875</v>
       </c>
@@ -18934,8 +19281,11 @@
       <c r="C516" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D516" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A517" s="6">
         <v>40876</v>
       </c>
@@ -18945,8 +19295,11 @@
       <c r="C517" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D517" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A518" s="6">
         <v>40877</v>
       </c>
@@ -18956,8 +19309,11 @@
       <c r="C518" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D518" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A519" s="6">
         <v>40878</v>
       </c>
@@ -18967,8 +19323,11 @@
       <c r="C519" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D519" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A520" s="6">
         <v>40879</v>
       </c>
@@ -18979,7 +19338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A521" s="6">
         <v>40880</v>
       </c>
@@ -18990,7 +19349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A522" s="6">
         <v>40881</v>
       </c>
@@ -19001,7 +19360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A523" s="6">
         <v>40882</v>
       </c>
@@ -19012,7 +19371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A524" s="6">
         <v>40883</v>
       </c>
@@ -19022,8 +19381,11 @@
       <c r="C524" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D524" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A525" s="6">
         <v>40884</v>
       </c>
@@ -19033,8 +19395,11 @@
       <c r="C525" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D525" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A526" s="6">
         <v>40885</v>
       </c>
@@ -19045,7 +19410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A527" s="6">
         <v>40886</v>
       </c>
@@ -19056,7 +19421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A528" s="6">
         <v>40887</v>
       </c>
@@ -19067,7 +19432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A529" s="6">
         <v>40888</v>
       </c>
@@ -19078,7 +19443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A530" s="6">
         <v>40889</v>
       </c>
@@ -19088,8 +19453,11 @@
       <c r="C530" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D530" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A531" s="6">
         <v>40890</v>
       </c>
@@ -19100,7 +19468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A532" s="6">
         <v>40891</v>
       </c>
@@ -19111,7 +19479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A533" s="6">
         <v>40892</v>
       </c>
@@ -19122,7 +19490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A534" s="6">
         <v>40893</v>
       </c>
@@ -19132,8 +19500,11 @@
       <c r="C534" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E534" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A535" s="6">
         <v>40894</v>
       </c>
@@ -19143,8 +19514,11 @@
       <c r="C535" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E535" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A536" s="6">
         <v>40895</v>
       </c>
@@ -19154,8 +19528,11 @@
       <c r="C536" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E536" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A537" s="6">
         <v>40896</v>
       </c>
@@ -19165,30 +19542,42 @@
       <c r="C537" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E537" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A538" s="6">
         <v>40897</v>
       </c>
-      <c r="B538">
-        <v>1</v>
+      <c r="B538" t="s">
+        <v>97</v>
       </c>
       <c r="C538" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="E538" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A539" s="6">
         <v>40898</v>
       </c>
-      <c r="B539" t="s">
-        <v>55</v>
+      <c r="B539">
+        <v>1</v>
       </c>
       <c r="C539" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="D539" t="s">
+        <v>73</v>
+      </c>
+      <c r="E539" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A540" s="6">
         <v>40899</v>
       </c>
@@ -19198,19 +19587,28 @@
       <c r="C540" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E540" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A541" s="6">
         <v>40900</v>
       </c>
-      <c r="B541" t="s">
-        <v>55</v>
+      <c r="B541">
+        <v>0</v>
       </c>
       <c r="C541" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="D541" t="s">
+        <v>73</v>
+      </c>
+      <c r="E541" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A542" s="6">
         <v>40901</v>
       </c>
@@ -19220,8 +19618,11 @@
       <c r="C542" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E542" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A543" s="6">
         <v>40902</v>
       </c>
@@ -19232,7 +19633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A544" s="6">
         <v>40903</v>
       </c>
@@ -19243,7 +19644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A545" s="6">
         <v>40904</v>
       </c>
@@ -19254,7 +19655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A546" s="6">
         <v>40905</v>
       </c>
@@ -19265,18 +19666,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A547" s="6">
         <v>40906</v>
       </c>
-      <c r="B547" t="s">
-        <v>55</v>
+      <c r="B547">
+        <v>0</v>
       </c>
       <c r="C547" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="D547" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A548" s="6">
         <v>40907</v>
       </c>
@@ -19286,8 +19690,11 @@
       <c r="C548" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D548" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A549" s="6">
         <v>40908</v>
       </c>
@@ -19297,30 +19704,45 @@
       <c r="C549" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D549" t="s">
+        <v>94</v>
+      </c>
+      <c r="E549" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A550" s="6">
         <v>40909</v>
       </c>
-      <c r="B550">
-        <v>1</v>
+      <c r="B550" t="s">
+        <v>21</v>
       </c>
       <c r="C550" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="D550" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A551" s="6">
         <v>40910</v>
       </c>
-      <c r="B551" t="s">
-        <v>55</v>
+      <c r="B551">
+        <v>1</v>
       </c>
       <c r="C551" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="D551" t="s">
+        <v>94</v>
+      </c>
+      <c r="E551" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A552" s="6">
         <v>40911</v>
       </c>
@@ -19330,8 +19752,11 @@
       <c r="C552" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D552" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A553" s="6">
         <v>40912</v>
       </c>
@@ -19341,8 +19766,11 @@
       <c r="C553" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D553" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A554" s="6">
         <v>40913</v>
       </c>
@@ -19353,7 +19781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A555" s="6">
         <v>40914</v>
       </c>
@@ -19364,7 +19792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A556" s="6">
         <v>40915</v>
       </c>
@@ -19375,7 +19803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A557" s="6">
         <v>40916</v>
       </c>
@@ -19386,7 +19814,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A558" s="6">
         <v>40917</v>
       </c>
@@ -19397,7 +19825,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A559" s="6">
         <v>40918</v>
       </c>
@@ -19408,7 +19836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A560" s="6">
         <v>40919</v>
       </c>
@@ -19456,71 +19884,1737 @@
       <c r="A564" s="6">
         <v>40923</v>
       </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A565" s="6">
         <v>40924</v>
       </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A566" s="6">
         <v>40925</v>
       </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+      <c r="C566" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A567" s="6">
         <v>40926</v>
       </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" s="6">
         <v>40927</v>
       </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A569" s="6">
         <v>40928</v>
       </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A570" s="6">
         <v>40929</v>
       </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+      <c r="C570" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A571" s="6">
         <v>40930</v>
       </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A572" s="6">
         <v>40931</v>
       </c>
+      <c r="B572" t="s">
+        <v>46</v>
+      </c>
+      <c r="C572" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A573" s="6">
         <v>40932</v>
       </c>
+      <c r="B573" t="s">
+        <v>46</v>
+      </c>
+      <c r="C573" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" s="6">
         <v>40933</v>
       </c>
+      <c r="B574" t="s">
+        <v>46</v>
+      </c>
+      <c r="C574" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A575" s="6">
         <v>40934</v>
       </c>
+      <c r="B575" t="s">
+        <v>46</v>
+      </c>
+      <c r="C575" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A576" s="6">
         <v>40935</v>
       </c>
+      <c r="B576" t="s">
+        <v>46</v>
+      </c>
+      <c r="C576" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A577" s="6">
+        <v>40936</v>
+      </c>
+      <c r="B577" t="s">
+        <v>46</v>
+      </c>
+      <c r="C577" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A578" s="6">
+        <v>40937</v>
+      </c>
+      <c r="B578" t="s">
+        <v>46</v>
+      </c>
+      <c r="C578" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A579" s="6">
+        <v>40938</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+      <c r="C579" t="s">
+        <v>66</v>
+      </c>
+      <c r="D579" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A580" s="6">
+        <v>40939</v>
+      </c>
+      <c r="B580" t="s">
+        <v>46</v>
+      </c>
+      <c r="C580" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A581" s="6">
+        <v>40940</v>
+      </c>
+      <c r="B581" t="s">
+        <v>46</v>
+      </c>
+      <c r="C581" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A582" s="6">
+        <v>40941</v>
+      </c>
+      <c r="B582" t="s">
+        <v>46</v>
+      </c>
+      <c r="C582" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A583" s="6">
+        <v>40942</v>
+      </c>
+      <c r="B583" t="s">
+        <v>46</v>
+      </c>
+      <c r="C583" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A584" s="6">
+        <v>40943</v>
+      </c>
+      <c r="B584" t="s">
+        <v>46</v>
+      </c>
+      <c r="C584" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A585" s="6">
+        <v>40944</v>
+      </c>
+      <c r="B585" t="s">
+        <v>46</v>
+      </c>
+      <c r="C585" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A586" s="6">
+        <v>40945</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+      <c r="C586" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A587" s="6">
+        <v>40946</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A588" s="6">
+        <v>40947</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+      <c r="C588" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A589" s="6">
+        <v>40948</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A590" s="6">
+        <v>40949</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+      <c r="C590" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A591" s="6">
+        <v>40950</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A592" s="6">
+        <v>40951</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+      <c r="C592" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A593" s="6">
+        <v>40952</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+      <c r="C593" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A594" s="6">
+        <v>40953</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+      <c r="C594" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A595" s="6">
+        <v>40954</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A596" s="6">
+        <v>40955</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+      <c r="C596" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A597" s="6">
+        <v>40956</v>
+      </c>
+      <c r="B597" t="s">
+        <v>46</v>
+      </c>
+      <c r="C597" t="s">
+        <v>67</v>
+      </c>
+      <c r="D597" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A598" s="6">
+        <v>40957</v>
+      </c>
+      <c r="B598" t="s">
+        <v>46</v>
+      </c>
+      <c r="C598" t="s">
+        <v>67</v>
+      </c>
+      <c r="D598" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A599" s="6">
+        <v>40958</v>
+      </c>
+      <c r="B599" t="s">
+        <v>46</v>
+      </c>
+      <c r="C599" t="s">
+        <v>68</v>
+      </c>
+      <c r="D599" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A600" s="6">
+        <v>40959</v>
+      </c>
+      <c r="B600" t="s">
+        <v>46</v>
+      </c>
+      <c r="C600" t="s">
+        <v>69</v>
+      </c>
+      <c r="D600" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A601" s="6">
+        <v>40960</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A602" s="6">
+        <v>40961</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A603" s="6">
+        <v>40962</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A604" s="6">
+        <v>40963</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+      <c r="C604" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A605" s="6">
+        <v>40964</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A606" s="6">
+        <v>40965</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606" t="s">
+        <v>61</v>
+      </c>
+      <c r="D606" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A607" s="6">
+        <v>40966</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+      <c r="C607" t="s">
+        <v>61</v>
+      </c>
+      <c r="D607" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A608" s="6">
+        <v>40967</v>
+      </c>
+      <c r="B608">
+        <v>0</v>
+      </c>
+      <c r="C608" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A609" s="6">
+        <v>40968</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A610" s="6">
+        <v>40969</v>
+      </c>
+      <c r="B610">
+        <v>0</v>
+      </c>
+      <c r="C610" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A611" s="6">
+        <v>40970</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+      <c r="C611" t="s">
+        <v>61</v>
+      </c>
+      <c r="D611" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A612" s="6">
+        <v>40971</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+      <c r="C612" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A613" s="6">
+        <v>40972</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+      <c r="C613" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A614" s="6">
+        <v>40973</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+      <c r="C614" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A615" s="6">
+        <v>40974</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+      <c r="C615" t="s">
+        <v>61</v>
+      </c>
+      <c r="D615" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A616" s="6">
+        <v>40975</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+      <c r="C616" t="s">
+        <v>74</v>
+      </c>
+      <c r="D616" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A617" s="6">
+        <v>40976</v>
+      </c>
+      <c r="B617" t="s">
+        <v>46</v>
+      </c>
+      <c r="C617" t="s">
+        <v>67</v>
+      </c>
+      <c r="E617" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A618" s="6">
+        <v>40977</v>
+      </c>
+      <c r="B618" t="s">
+        <v>46</v>
+      </c>
+      <c r="C618" t="s">
+        <v>67</v>
+      </c>
+      <c r="E618" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A619" s="6">
+        <v>40978</v>
+      </c>
+      <c r="B619" t="s">
+        <v>46</v>
+      </c>
+      <c r="C619" t="s">
+        <v>70</v>
+      </c>
+      <c r="E619" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A620" s="6">
+        <v>40979</v>
+      </c>
+      <c r="B620" t="s">
+        <v>46</v>
+      </c>
+      <c r="C620" t="s">
+        <v>67</v>
+      </c>
+      <c r="E620" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A621" s="6">
+        <v>40980</v>
+      </c>
+      <c r="B621" t="s">
+        <v>46</v>
+      </c>
+      <c r="C621" t="s">
+        <v>67</v>
+      </c>
+      <c r="E621" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A622" s="6">
+        <v>40981</v>
+      </c>
+      <c r="B622" t="s">
+        <v>46</v>
+      </c>
+      <c r="C622" t="s">
+        <v>71</v>
+      </c>
+      <c r="E622" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A623" s="6">
+        <v>40982</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A624" s="6">
+        <v>40983</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A625" s="6">
+        <v>40984</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+      <c r="C625" t="s">
+        <v>61</v>
+      </c>
+      <c r="D625" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A626" s="6">
+        <v>40985</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+      <c r="C626" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A627" s="6">
+        <v>40986</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+      <c r="C627" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A628" s="6">
+        <v>40987</v>
+      </c>
+      <c r="B628">
+        <v>0</v>
+      </c>
+      <c r="C628" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A629" s="6">
+        <v>40988</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+      <c r="C629" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A630" s="6">
+        <v>40989</v>
+      </c>
+      <c r="B630" t="s">
+        <v>46</v>
+      </c>
+      <c r="C630" t="s">
+        <v>67</v>
+      </c>
+      <c r="E630" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A631" s="6">
+        <v>40990</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+      <c r="C631" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A632" s="6">
+        <v>40991</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+      <c r="C632" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A633" s="6">
+        <v>40992</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+      <c r="C633" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A634" s="6">
+        <v>40993</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+      <c r="C634" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A635" s="6">
+        <v>40994</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+      <c r="C635" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A636" s="6">
+        <v>40995</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+      <c r="C636" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A637" s="6">
+        <v>40996</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637" t="s">
+        <v>72</v>
+      </c>
+      <c r="D637" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A638" s="6">
+        <v>40997</v>
+      </c>
+      <c r="B638" t="s">
+        <v>46</v>
+      </c>
+      <c r="C638" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A639" s="6">
+        <v>40998</v>
+      </c>
+      <c r="B639" t="s">
+        <v>46</v>
+      </c>
+      <c r="C639" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A640" s="6">
+        <v>40999</v>
+      </c>
+      <c r="B640" t="s">
+        <v>46</v>
+      </c>
+      <c r="C640" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A641" s="6">
+        <v>41000</v>
+      </c>
+      <c r="B641" t="s">
+        <v>112</v>
+      </c>
+      <c r="C641" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A642" s="6">
+        <v>41001</v>
+      </c>
+      <c r="B642" t="s">
+        <v>46</v>
+      </c>
+      <c r="C642" t="s">
+        <v>72</v>
+      </c>
+      <c r="E642" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A643" s="6">
+        <v>41002</v>
+      </c>
+      <c r="B643" t="s">
+        <v>46</v>
+      </c>
+      <c r="C643" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A644" s="6">
+        <v>41003</v>
+      </c>
+      <c r="B644" t="s">
+        <v>46</v>
+      </c>
+      <c r="C644" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A645" s="6">
+        <v>41004</v>
+      </c>
+      <c r="B645" t="s">
+        <v>46</v>
+      </c>
+      <c r="C645" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A646" s="6">
+        <v>41005</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+      <c r="C646" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A647" s="6">
+        <v>41006</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647" t="s">
+        <v>61</v>
+      </c>
+      <c r="D647" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A648" s="6">
+        <v>41007</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+      <c r="C648" t="s">
+        <v>61</v>
+      </c>
+      <c r="D648" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A649" s="6">
+        <v>41008</v>
+      </c>
+      <c r="B649">
+        <v>0</v>
+      </c>
+      <c r="C649" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A650" s="6">
+        <v>41009</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+      <c r="C650" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A651" s="6">
+        <v>41010</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+      <c r="C651" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A652" s="6">
+        <v>41011</v>
+      </c>
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A653" s="6">
+        <v>41012</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+      <c r="C653" t="s">
+        <v>61</v>
+      </c>
+      <c r="D653" t="s">
+        <v>90</v>
+      </c>
+      <c r="E653" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A654" s="6">
+        <v>41013</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+      <c r="C654" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A655" s="6">
+        <v>41014</v>
+      </c>
+      <c r="B655" t="s">
+        <v>46</v>
+      </c>
+      <c r="C655" t="s">
+        <v>67</v>
+      </c>
+      <c r="E655" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A656" s="6">
+        <v>41015</v>
+      </c>
+      <c r="B656" t="s">
+        <v>46</v>
+      </c>
+      <c r="C656" t="s">
+        <v>67</v>
+      </c>
+      <c r="E656" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A657" s="6">
+        <v>41016</v>
+      </c>
+      <c r="B657" t="s">
+        <v>46</v>
+      </c>
+      <c r="C657" t="s">
+        <v>67</v>
+      </c>
+      <c r="E657" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A658" s="6">
+        <v>41017</v>
+      </c>
+      <c r="B658" t="s">
+        <v>46</v>
+      </c>
+      <c r="C658" t="s">
+        <v>67</v>
+      </c>
+      <c r="E658" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A659" s="6">
+        <v>41018</v>
+      </c>
+      <c r="B659" t="s">
+        <v>46</v>
+      </c>
+      <c r="C659" t="s">
+        <v>67</v>
+      </c>
+      <c r="E659" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A660" s="6">
+        <v>41019</v>
+      </c>
+      <c r="B660" t="s">
+        <v>46</v>
+      </c>
+      <c r="C660" t="s">
+        <v>67</v>
+      </c>
+      <c r="E660" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A661" s="6">
+        <v>41020</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+      <c r="C661" t="s">
+        <v>78</v>
+      </c>
+      <c r="D661" t="s">
+        <v>80</v>
+      </c>
+      <c r="E661" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A662" s="6">
+        <v>41021</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+      <c r="C662" t="s">
+        <v>78</v>
+      </c>
+      <c r="D662" t="s">
+        <v>80</v>
+      </c>
+      <c r="E662" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A663" s="6">
+        <v>41022</v>
+      </c>
+      <c r="B663" t="s">
+        <v>21</v>
+      </c>
+      <c r="C663" t="s">
+        <v>67</v>
+      </c>
+      <c r="E663" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A664" s="6">
+        <v>41023</v>
+      </c>
+      <c r="B664" t="s">
+        <v>21</v>
+      </c>
+      <c r="C664" t="s">
+        <v>67</v>
+      </c>
+      <c r="E664" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A665" s="6">
+        <v>41024</v>
+      </c>
+      <c r="B665" t="s">
+        <v>21</v>
+      </c>
+      <c r="C665" t="s">
+        <v>67</v>
+      </c>
+      <c r="E665" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A666" s="6">
+        <v>41025</v>
+      </c>
+      <c r="B666" t="s">
+        <v>21</v>
+      </c>
+      <c r="C666" t="s">
+        <v>67</v>
+      </c>
+      <c r="E666" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A667" s="6">
+        <v>41026</v>
+      </c>
+      <c r="B667" t="s">
+        <v>21</v>
+      </c>
+      <c r="C667" t="s">
+        <v>67</v>
+      </c>
+      <c r="E667" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A668" s="6">
+        <v>41027</v>
+      </c>
+      <c r="B668" t="s">
+        <v>21</v>
+      </c>
+      <c r="C668" t="s">
+        <v>67</v>
+      </c>
+      <c r="E668" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A669" s="6">
+        <v>41028</v>
+      </c>
+      <c r="B669" t="s">
+        <v>21</v>
+      </c>
+      <c r="C669" t="s">
+        <v>67</v>
+      </c>
+      <c r="E669" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A670" s="6">
+        <v>41029</v>
+      </c>
+      <c r="B670" t="s">
+        <v>21</v>
+      </c>
+      <c r="C670" t="s">
+        <v>67</v>
+      </c>
+      <c r="E670" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A671" s="6">
+        <v>41030</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+      <c r="C671" t="s">
+        <v>78</v>
+      </c>
+      <c r="D671" t="s">
+        <v>95</v>
+      </c>
+      <c r="E671" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A672" s="6">
+        <v>41031</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+      <c r="C672" t="s">
+        <v>78</v>
+      </c>
+      <c r="D672" t="s">
+        <v>79</v>
+      </c>
+      <c r="E672" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A673" s="6">
+        <v>41032</v>
+      </c>
+      <c r="B673" t="s">
+        <v>21</v>
+      </c>
+      <c r="C673" t="s">
+        <v>67</v>
+      </c>
+      <c r="E673" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A674" s="6">
+        <v>41033</v>
+      </c>
+      <c r="B674" t="s">
+        <v>21</v>
+      </c>
+      <c r="C674" t="s">
+        <v>67</v>
+      </c>
+      <c r="E674" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A675" s="6">
+        <v>41034</v>
+      </c>
+      <c r="B675" t="s">
+        <v>21</v>
+      </c>
+      <c r="C675" t="s">
+        <v>67</v>
+      </c>
+      <c r="E675" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A676" s="6">
+        <v>41035</v>
+      </c>
+      <c r="B676" t="s">
+        <v>21</v>
+      </c>
+      <c r="C676" t="s">
+        <v>67</v>
+      </c>
+      <c r="E676" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A677" s="6">
+        <v>41036</v>
+      </c>
+      <c r="B677" t="s">
+        <v>21</v>
+      </c>
+      <c r="C677" t="s">
+        <v>67</v>
+      </c>
+      <c r="E677" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A678" s="6">
+        <v>41037</v>
+      </c>
+      <c r="B678" t="s">
+        <v>21</v>
+      </c>
+      <c r="C678" t="s">
+        <v>67</v>
+      </c>
+      <c r="E678" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A679" s="6">
+        <v>41038</v>
+      </c>
+      <c r="B679" t="s">
+        <v>21</v>
+      </c>
+      <c r="C679" t="s">
+        <v>67</v>
+      </c>
+      <c r="E679" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A680" s="6">
+        <v>41039</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+      <c r="C680" t="s">
+        <v>78</v>
+      </c>
+      <c r="D680" t="s">
+        <v>80</v>
+      </c>
+      <c r="E680" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A681" s="6">
+        <v>41040</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+      <c r="C681" t="s">
+        <v>67</v>
+      </c>
+      <c r="E681" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A682" s="6">
+        <v>41041</v>
+      </c>
+      <c r="B682" t="s">
+        <v>21</v>
+      </c>
+      <c r="C682" t="s">
+        <v>67</v>
+      </c>
+      <c r="E682" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A683" s="6">
+        <v>41042</v>
+      </c>
+      <c r="B683" t="s">
+        <v>21</v>
+      </c>
+      <c r="C683" t="s">
+        <v>66</v>
+      </c>
+      <c r="E683" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A684" s="6">
+        <v>41043</v>
+      </c>
+      <c r="B684" t="s">
+        <v>21</v>
+      </c>
+      <c r="C684" t="s">
+        <v>66</v>
+      </c>
+      <c r="E684" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A685" s="6">
+        <v>41044</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+      <c r="C685" t="s">
+        <v>83</v>
+      </c>
+      <c r="D685" t="s">
+        <v>85</v>
+      </c>
+      <c r="E685" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A686" s="6">
+        <v>41045</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+      <c r="C686" t="s">
+        <v>84</v>
+      </c>
+      <c r="D686" t="s">
+        <v>85</v>
+      </c>
+      <c r="E686" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A687" s="6">
+        <v>41046</v>
+      </c>
+      <c r="B687" t="s">
+        <v>21</v>
+      </c>
+      <c r="C687" t="s">
+        <v>66</v>
+      </c>
+      <c r="D687" t="s">
+        <v>21</v>
+      </c>
+      <c r="E687" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A688" s="6">
+        <v>41047</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+      <c r="C688" t="s">
+        <v>81</v>
+      </c>
+      <c r="D688" t="s">
+        <v>82</v>
+      </c>
+      <c r="E688" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A689" s="6">
+        <v>41048</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A690" s="6">
+        <v>41049</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A691" s="6">
+        <v>41050</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A692" s="6">
+        <v>41051</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A693" s="6">
+        <v>41052</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A694" s="6">
+        <v>41053</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A695" s="6">
+        <v>41054</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B357:B553">
+  <conditionalFormatting sqref="B357:B550 B552:B654">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B655:B660">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D663:D670">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B673:B679">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B681:B684">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D687">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B685:B686 B688 B680 B671:B672 B661:B662 B646:B654 B641 B357:B550 B552:B637">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B687">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B663:B670">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B551">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B551">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/webcam_photo_finish.xlsx
+++ b/webcam_photo_finish.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="128">
   <si>
     <t>st1</t>
   </si>
@@ -468,22 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北山カメラでは薄すぎると思ったが・・・場所によっては見えたらしい</t>
-    <rPh sb="0" eb="2">
-      <t>キタヤマ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウススギル</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バショニヨッテハ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミエタラシイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自前の北山カメラキャプチャ画像で判断</t>
     <rPh sb="0" eb="2">
       <t>ジマエ</t>
@@ -555,17 +539,6 @@
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>twitter情報</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -707,6 +680,81 @@
   </si>
   <si>
     <t>北山カメラ不調</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter情報, 微妙だったかもしれない。</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出たのかも？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラでは薄すぎると思った</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウススギル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterより判断. 報告がものすごくある。</t>
+    <rPh sb="9" eb="11">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつの間にかカメラが回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter情報もあり</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13535,10 +13583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F695"/>
+  <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E594" sqref="E594"/>
+    <sheetView tabSelected="1" topLeftCell="A674" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="C699" sqref="C699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -18166,7 +18214,7 @@
         <v>59</v>
       </c>
       <c r="D420" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
@@ -18180,7 +18228,7 @@
         <v>59</v>
       </c>
       <c r="D421" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
@@ -18194,7 +18242,7 @@
         <v>59</v>
       </c>
       <c r="D422" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
@@ -18593,7 +18641,7 @@
         <v>59</v>
       </c>
       <c r="E458" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
@@ -18607,7 +18655,7 @@
         <v>59</v>
       </c>
       <c r="E459" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
@@ -18624,7 +18672,7 @@
         <v>73</v>
       </c>
       <c r="E460" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
@@ -18638,7 +18686,7 @@
         <v>59</v>
       </c>
       <c r="E461" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
@@ -18652,10 +18700,10 @@
         <v>59</v>
       </c>
       <c r="E462" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F462" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
@@ -18669,7 +18717,7 @@
         <v>59</v>
       </c>
       <c r="E463" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
@@ -18771,7 +18819,7 @@
         <v>60</v>
       </c>
       <c r="D472" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
@@ -18807,7 +18855,7 @@
         <v>60</v>
       </c>
       <c r="D475" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
@@ -18821,7 +18869,7 @@
         <v>60</v>
       </c>
       <c r="D476" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
@@ -18857,7 +18905,7 @@
         <v>60</v>
       </c>
       <c r="D479" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
@@ -18871,7 +18919,7 @@
         <v>60</v>
       </c>
       <c r="D480" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
@@ -18995,7 +19043,7 @@
         <v>60</v>
       </c>
       <c r="D491" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.15">
@@ -19020,7 +19068,7 @@
         <v>60</v>
       </c>
       <c r="D493" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.15">
@@ -19133,7 +19181,7 @@
         <v>60</v>
       </c>
       <c r="D503" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.15">
@@ -19213,7 +19261,7 @@
         <v>60</v>
       </c>
       <c r="D510" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.15">
@@ -19282,7 +19330,7 @@
         <v>60</v>
       </c>
       <c r="D516" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.15">
@@ -19296,7 +19344,7 @@
         <v>60</v>
       </c>
       <c r="D517" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.15">
@@ -19310,7 +19358,7 @@
         <v>60</v>
       </c>
       <c r="D518" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.15">
@@ -19324,7 +19372,7 @@
         <v>60</v>
       </c>
       <c r="D519" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.15">
@@ -19382,7 +19430,7 @@
         <v>60</v>
       </c>
       <c r="D524" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.15">
@@ -19396,7 +19444,7 @@
         <v>60</v>
       </c>
       <c r="D525" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.15">
@@ -19454,7 +19502,7 @@
         <v>60</v>
       </c>
       <c r="D530" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.15">
@@ -19501,7 +19549,7 @@
         <v>59</v>
       </c>
       <c r="E534" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.15">
@@ -19515,7 +19563,7 @@
         <v>59</v>
       </c>
       <c r="E535" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.15">
@@ -19529,7 +19577,7 @@
         <v>59</v>
       </c>
       <c r="E536" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.15">
@@ -19543,7 +19591,7 @@
         <v>59</v>
       </c>
       <c r="E537" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.15">
@@ -19551,13 +19599,13 @@
         <v>40897</v>
       </c>
       <c r="B538" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C538" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E538" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.15">
@@ -19568,13 +19616,13 @@
         <v>1</v>
       </c>
       <c r="C539" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D539" t="s">
         <v>73</v>
       </c>
       <c r="E539" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.15">
@@ -19588,7 +19636,7 @@
         <v>59</v>
       </c>
       <c r="E540" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.15">
@@ -19599,13 +19647,13 @@
         <v>0</v>
       </c>
       <c r="C541" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D541" t="s">
         <v>73</v>
       </c>
       <c r="E541" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.15">
@@ -19619,7 +19667,7 @@
         <v>59</v>
       </c>
       <c r="E542" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.15">
@@ -19674,10 +19722,10 @@
         <v>0</v>
       </c>
       <c r="C547" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D547" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.15">
@@ -19691,7 +19739,7 @@
         <v>59</v>
       </c>
       <c r="D548" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.15">
@@ -19705,10 +19753,10 @@
         <v>60</v>
       </c>
       <c r="D549" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E549" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.15">
@@ -19719,10 +19767,10 @@
         <v>21</v>
       </c>
       <c r="C550" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D550" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.15">
@@ -19736,7 +19784,7 @@
         <v>60</v>
       </c>
       <c r="D551" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E551" t="s">
         <v>73</v>
@@ -19753,7 +19801,7 @@
         <v>59</v>
       </c>
       <c r="D552" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.15">
@@ -19767,7 +19815,7 @@
         <v>59</v>
       </c>
       <c r="D553" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.15">
@@ -20056,7 +20104,7 @@
         <v>66</v>
       </c>
       <c r="D579" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.15">
@@ -20257,7 +20305,7 @@
         <v>67</v>
       </c>
       <c r="D597" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.15">
@@ -20271,7 +20319,7 @@
         <v>67</v>
       </c>
       <c r="D598" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.15">
@@ -20285,7 +20333,7 @@
         <v>68</v>
       </c>
       <c r="D599" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.15">
@@ -20299,7 +20347,7 @@
         <v>69</v>
       </c>
       <c r="D600" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.15">
@@ -20362,13 +20410,13 @@
         <v>40965</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="s">
         <v>61</v>
       </c>
       <c r="D606" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.15">
@@ -20382,7 +20430,7 @@
         <v>61</v>
       </c>
       <c r="D607" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.15">
@@ -20429,7 +20477,7 @@
         <v>61</v>
       </c>
       <c r="D611" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.15">
@@ -20504,7 +20552,7 @@
         <v>67</v>
       </c>
       <c r="E617" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.15">
@@ -20518,7 +20566,7 @@
         <v>67</v>
       </c>
       <c r="E618" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.15">
@@ -20532,7 +20580,7 @@
         <v>70</v>
       </c>
       <c r="E619" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.15">
@@ -20546,7 +20594,7 @@
         <v>67</v>
       </c>
       <c r="E620" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.15">
@@ -20560,7 +20608,7 @@
         <v>67</v>
       </c>
       <c r="E621" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.15">
@@ -20574,7 +20622,7 @@
         <v>71</v>
       </c>
       <c r="E622" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.15">
@@ -20610,7 +20658,7 @@
         <v>61</v>
       </c>
       <c r="D625" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.15">
@@ -20668,7 +20716,7 @@
         <v>67</v>
       </c>
       <c r="E630" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.15">
@@ -20748,7 +20796,7 @@
         <v>72</v>
       </c>
       <c r="D637" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.15">
@@ -20789,10 +20837,13 @@
         <v>41000</v>
       </c>
       <c r="B641" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C641" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="D641" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.15">
@@ -20806,7 +20857,7 @@
         <v>72</v>
       </c>
       <c r="E642" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.15">
@@ -20864,7 +20915,7 @@
         <v>61</v>
       </c>
       <c r="D647" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.15">
@@ -20878,7 +20929,7 @@
         <v>61</v>
       </c>
       <c r="D648" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.15">
@@ -20936,10 +20987,10 @@
         <v>61</v>
       </c>
       <c r="D653" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E653" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
@@ -20964,7 +21015,7 @@
         <v>67</v>
       </c>
       <c r="E655" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.15">
@@ -20978,7 +21029,7 @@
         <v>67</v>
       </c>
       <c r="E656" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.15">
@@ -20992,7 +21043,7 @@
         <v>67</v>
       </c>
       <c r="E657" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.15">
@@ -21006,7 +21057,7 @@
         <v>67</v>
       </c>
       <c r="E658" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.15">
@@ -21020,7 +21071,7 @@
         <v>67</v>
       </c>
       <c r="E659" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.15">
@@ -21034,24 +21085,21 @@
         <v>67</v>
       </c>
       <c r="E660" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A661" s="6">
         <v>41020</v>
       </c>
-      <c r="B661">
-        <v>1</v>
+      <c r="B661" t="s">
+        <v>121</v>
       </c>
       <c r="C661" t="s">
-        <v>78</v>
-      </c>
-      <c r="D661" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E661" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.15">
@@ -21062,13 +21110,13 @@
         <v>1</v>
       </c>
       <c r="C662" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D662" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E662" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.15">
@@ -21082,7 +21130,7 @@
         <v>67</v>
       </c>
       <c r="E663" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.15">
@@ -21096,7 +21144,7 @@
         <v>67</v>
       </c>
       <c r="E664" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.15">
@@ -21110,7 +21158,7 @@
         <v>67</v>
       </c>
       <c r="E665" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.15">
@@ -21124,7 +21172,7 @@
         <v>67</v>
       </c>
       <c r="E666" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.15">
@@ -21138,7 +21186,7 @@
         <v>67</v>
       </c>
       <c r="E667" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
@@ -21152,7 +21200,7 @@
         <v>67</v>
       </c>
       <c r="E668" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.15">
@@ -21166,7 +21214,7 @@
         <v>67</v>
       </c>
       <c r="E669" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.15">
@@ -21180,7 +21228,7 @@
         <v>67</v>
       </c>
       <c r="E670" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.15">
@@ -21191,13 +21239,13 @@
         <v>1</v>
       </c>
       <c r="C671" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D671" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E671" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.15">
@@ -21208,13 +21256,13 @@
         <v>0</v>
       </c>
       <c r="C672" t="s">
+        <v>77</v>
+      </c>
+      <c r="D672" t="s">
         <v>78</v>
       </c>
-      <c r="D672" t="s">
-        <v>79</v>
-      </c>
       <c r="E672" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.15">
@@ -21228,7 +21276,7 @@
         <v>67</v>
       </c>
       <c r="E673" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.15">
@@ -21242,7 +21290,7 @@
         <v>67</v>
       </c>
       <c r="E674" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
@@ -21256,7 +21304,7 @@
         <v>67</v>
       </c>
       <c r="E675" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.15">
@@ -21270,7 +21318,7 @@
         <v>67</v>
       </c>
       <c r="E676" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.15">
@@ -21284,7 +21332,7 @@
         <v>67</v>
       </c>
       <c r="E677" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
@@ -21298,7 +21346,7 @@
         <v>67</v>
       </c>
       <c r="E678" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.15">
@@ -21312,38 +21360,38 @@
         <v>67</v>
       </c>
       <c r="E679" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" s="6">
         <v>41039</v>
       </c>
-      <c r="B680">
-        <v>1</v>
+      <c r="B680" t="s">
+        <v>118</v>
       </c>
       <c r="C680" t="s">
-        <v>78</v>
-      </c>
-      <c r="D680" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E680" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" s="6">
         <v>41040</v>
       </c>
-      <c r="B681" t="s">
-        <v>21</v>
+      <c r="B681">
+        <v>1</v>
       </c>
       <c r="C681" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="D681" t="s">
+        <v>79</v>
       </c>
       <c r="E681" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.15">
@@ -21357,7 +21405,7 @@
         <v>67</v>
       </c>
       <c r="E682" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.15">
@@ -21371,7 +21419,7 @@
         <v>66</v>
       </c>
       <c r="E683" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.15">
@@ -21385,24 +21433,21 @@
         <v>66</v>
       </c>
       <c r="E684" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" s="6">
         <v>41044</v>
       </c>
-      <c r="B685">
-        <v>1</v>
+      <c r="B685" t="s">
+        <v>113</v>
       </c>
       <c r="C685" t="s">
-        <v>83</v>
-      </c>
-      <c r="D685" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E685" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.15">
@@ -21413,13 +21458,13 @@
         <v>1</v>
       </c>
       <c r="C686" t="s">
+        <v>82</v>
+      </c>
+      <c r="D686" t="s">
+        <v>120</v>
+      </c>
+      <c r="E686" t="s">
         <v>84</v>
-      </c>
-      <c r="D686" t="s">
-        <v>85</v>
-      </c>
-      <c r="E686" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.15">
@@ -21436,7 +21481,7 @@
         <v>21</v>
       </c>
       <c r="E687" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.15">
@@ -21447,48 +21492,197 @@
         <v>0</v>
       </c>
       <c r="C688" t="s">
+        <v>80</v>
+      </c>
+      <c r="D688" t="s">
         <v>81</v>
       </c>
-      <c r="D688" t="s">
-        <v>82</v>
-      </c>
       <c r="E688" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" s="6">
         <v>41048</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B689" t="s">
+        <v>114</v>
+      </c>
+      <c r="C689" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" s="6">
         <v>41049</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B690" t="s">
+        <v>115</v>
+      </c>
+      <c r="C690" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" s="6">
         <v>41050</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B691" t="s">
+        <v>116</v>
+      </c>
+      <c r="C691" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A692" s="6">
         <v>41051</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B692">
+        <v>0</v>
+      </c>
+      <c r="C692" t="s">
+        <v>77</v>
+      </c>
+      <c r="D692" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A693" s="6">
         <v>41052</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B693" t="s">
+        <v>117</v>
+      </c>
+      <c r="C693" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A694" s="6">
         <v>41053</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B694" t="s">
+        <v>22</v>
+      </c>
+      <c r="C694" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" s="6">
         <v>41054</v>
+      </c>
+      <c r="B695" t="s">
+        <v>22</v>
+      </c>
+      <c r="C695" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A696" s="6">
+        <v>41055</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696" t="s">
+        <v>80</v>
+      </c>
+      <c r="E696" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A697" s="6">
+        <v>41056</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697" t="s">
+        <v>77</v>
+      </c>
+      <c r="D697" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A698" s="6">
+        <v>41057</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+      <c r="C698" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A699" s="6">
+        <v>41058</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A700" s="6">
+        <v>41059</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A701" s="6">
+        <v>41060</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A702" s="6">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A703" s="6">
+        <v>41062</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A704" s="6">
+        <v>41063</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A705" s="6">
+        <v>41064</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A706" s="6">
+        <v>41065</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A707" s="6">
+        <v>41066</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A708" s="6">
+        <v>41067</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A709" s="6">
+        <v>41068</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A710" s="6">
+        <v>41069</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A711" s="6">
+        <v>41070</v>
       </c>
     </row>
   </sheetData>
@@ -21565,7 +21759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B685:B686 B688 B680 B671:B672 B661:B662 B646:B654 B641 B357:B550 B552:B637">
+  <conditionalFormatting sqref="B685:B686 B680 B671:B672 B661:B662 B646:B654 B641 B357:B550 B552:B637 B688:B691 B693:B698">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
